--- a/data/hotels_by_city/Houston/Houston_shard_116.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_116.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="588">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d300749-Reviews-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,1654 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r594004395-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>300749</t>
+  </si>
+  <si>
+    <t>594004395</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel for an allstar team</t>
+  </si>
+  <si>
+    <t>This place is awful. We stayed here with our whole baseball team for an all-star tournament. The kids were looking forward to a pool party. The pool is super shallow and about the size of a postage stamp. It was also semi-green and by the next morning it was full on green green (see attached picture). Gross. While the kids swam I took the uniforms and tried to wash them. The washers were awful. They didn’t have warm water and they didn’t even dissolve the tide pods so the uniforms ended up with pieces of the plastic that holds the tide pod together stuck on their pants. That’s how bad they were. The kids ended up with dirty pants even though I washed them twice, used 2 full refills of shout and oxi clean and tide. Also, they ended up with semi-wet pants because the dryers on both floors were broken. Ridiculous. Don’t ever stay here unless you need a place to sleep only. That’s about the only thing this place has to offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This place is awful. We stayed here with our whole baseball team for an all-star tournament. The kids were looking forward to a pool party. The pool is super shallow and about the size of a postage stamp. It was also semi-green and by the next morning it was full on green green (see attached picture). Gross. While the kids swam I took the uniforms and tried to wash them. The washers were awful. They didn’t have warm water and they didn’t even dissolve the tide pods so the uniforms ended up with pieces of the plastic that holds the tide pod together stuck on their pants. That’s how bad they were. The kids ended up with dirty pants even though I washed them twice, used 2 full refills of shout and oxi clean and tide. Also, they ended up with semi-wet pants because the dryers on both floors were broken. Ridiculous. Don’t ever stay here unless you need a place to sleep only. That’s about the only thing this place has to offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r535946581-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>535946581</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Best place</t>
+  </si>
+  <si>
+    <t>I recommend everyone to stay here! Their beds are the best! Feels like you are sleeping on clouds, great breakfast from the waffles to biscuits and gravy and the bacon and their staff is ABSOLUTELY amazing! Very helpful with everything I needed! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>I recommend everyone to stay here! Their beds are the best! Feels like you are sleeping on clouds, great breakfast from the waffles to biscuits and gravy and the bacon and their staff is ABSOLUTELY amazing! Very helpful with everything I needed! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r515521228-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>515521228</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>GREAT PROPERTY NORTH OF HOUSTON</t>
+  </si>
+  <si>
+    <t>What a great find just north of Houston and the Airport. I have traveled back and forth to Houston many times on business BUT had yet to stay at this property until this weekend. I wish I would have tried them a long time ago. From the minute you walk into the beautifully furnished and comfortably lobby to arrival to your room you know that you are in a good place. The staff are friendly, professional and very accommodating. The rooms big, spacious and very clean. Very quite too. The breakfast is probably the best that I have had at a Comfort Suites property in quite some time. Thank You for a GREAT STAY. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>What a great find just north of Houston and the Airport. I have traveled back and forth to Houston many times on business BUT had yet to stay at this property until this weekend. I wish I would have tried them a long time ago. From the minute you walk into the beautifully furnished and comfortably lobby to arrival to your room you know that you are in a good place. The staff are friendly, professional and very accommodating. The rooms big, spacious and very clean. Very quite too. The breakfast is probably the best that I have had at a Comfort Suites property in quite some time. Thank You for a GREAT STAY. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r473291048-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>473291048</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently stayed at the comfort Inn and suites in Humble for business. The hotel was very clean, from the lobby to the room. The staff was courteous and very helpful, they also recommend some great restaurants near by. I will be back for business in the summer and will be sure to stay here again! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r471929327-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>471929327</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Amazing hotel!!</t>
+  </si>
+  <si>
+    <t>I was at this hotel this past weekend and as an avid trip taker and traveler, my first choice is always a Comfort Inn or Suites. I've stayed at many hotels and this by far is one of my top hotels I've stayed in. The front desk staff as well as the manager had very good customer service and made me feel comfortable as I was checking in. I've never been to Houston but came for a friend's baby shower. I was able to ask the front desk staff about things to do in the area and places to eat and they were very insightful. The rooms where very comfortable and the comforter is really amazing! (Little details do matter). Everything in the room was clean, tidy, and spacious. My fiance and are huge on breakfast and their selection and variety was what we were hoping! It was great. Would I come back to the hotel? Definitely!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I was at this hotel this past weekend and as an avid trip taker and traveler, my first choice is always a Comfort Inn or Suites. I've stayed at many hotels and this by far is one of my top hotels I've stayed in. The front desk staff as well as the manager had very good customer service and made me feel comfortable as I was checking in. I've never been to Houston but came for a friend's baby shower. I was able to ask the front desk staff about things to do in the area and places to eat and they were very insightful. The rooms where very comfortable and the comforter is really amazing! (Little details do matter). Everything in the room was clean, tidy, and spacious. My fiance and are huge on breakfast and their selection and variety was what we were hoping! It was great. Would I come back to the hotel? Definitely!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r470981546-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>470981546</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>BEST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>I recently just stayed at the Comfort Suites Humble North. My family and I are pleased to say that this hotel is comforting and polite. I was flying from LAX to IAH for a wedding my family and I were attending in Houston. As soon as we stepped out of the airport, a hotel shuttle just arrived and we were on our way to the hotel. The driver of the shuttle loaded and unloaded our bags for us. He was also kind enough to offer us some complimentary water, and snacks. As soon as we walked inside the lobby, we were so eager to be here because this seemed like a nice comforting, peaceful hotel. We would like to thank the pianist in the lobby for playing a lovely composition of Beethoven's Moonlight Sonata. When we got to our rooms, we loved how they it was so bright, clean, and organized. Later that day we went to the pool and hot tub, and loved how the water was so clean, and clear. The next day we had breakfast and loved the different varieties of food. They was something for everyone and my kids didn't complaint. After breakfast, my family got ready and went to the wedding. When we got back we went to some points of interest, and did some shopping in the area. I would recommend this to anyone looking for a nice, warm, cozy hotel in the Houston...I recently just stayed at the Comfort Suites Humble North. My family and I are pleased to say that this hotel is comforting and polite. I was flying from LAX to IAH for a wedding my family and I were attending in Houston. As soon as we stepped out of the airport, a hotel shuttle just arrived and we were on our way to the hotel. The driver of the shuttle loaded and unloaded our bags for us. He was also kind enough to offer us some complimentary water, and snacks. As soon as we walked inside the lobby, we were so eager to be here because this seemed like a nice comforting, peaceful hotel. We would like to thank the pianist in the lobby for playing a lovely composition of Beethoven's Moonlight Sonata. When we got to our rooms, we loved how they it was so bright, clean, and organized. Later that day we went to the pool and hot tub, and loved how the water was so clean, and clear. The next day we had breakfast and loved the different varieties of food. They was something for everyone and my kids didn't complaint. After breakfast, my family got ready and went to the wedding. When we got back we went to some points of interest, and did some shopping in the area. I would recommend this to anyone looking for a nice, warm, cozy hotel in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I recently just stayed at the Comfort Suites Humble North. My family and I are pleased to say that this hotel is comforting and polite. I was flying from LAX to IAH for a wedding my family and I were attending in Houston. As soon as we stepped out of the airport, a hotel shuttle just arrived and we were on our way to the hotel. The driver of the shuttle loaded and unloaded our bags for us. He was also kind enough to offer us some complimentary water, and snacks. As soon as we walked inside the lobby, we were so eager to be here because this seemed like a nice comforting, peaceful hotel. We would like to thank the pianist in the lobby for playing a lovely composition of Beethoven's Moonlight Sonata. When we got to our rooms, we loved how they it was so bright, clean, and organized. Later that day we went to the pool and hot tub, and loved how the water was so clean, and clear. The next day we had breakfast and loved the different varieties of food. They was something for everyone and my kids didn't complaint. After breakfast, my family got ready and went to the wedding. When we got back we went to some points of interest, and did some shopping in the area. I would recommend this to anyone looking for a nice, warm, cozy hotel in the Houston...I recently just stayed at the Comfort Suites Humble North. My family and I are pleased to say that this hotel is comforting and polite. I was flying from LAX to IAH for a wedding my family and I were attending in Houston. As soon as we stepped out of the airport, a hotel shuttle just arrived and we were on our way to the hotel. The driver of the shuttle loaded and unloaded our bags for us. He was also kind enough to offer us some complimentary water, and snacks. As soon as we walked inside the lobby, we were so eager to be here because this seemed like a nice comforting, peaceful hotel. We would like to thank the pianist in the lobby for playing a lovely composition of Beethoven's Moonlight Sonata. When we got to our rooms, we loved how they it was so bright, clean, and organized. Later that day we went to the pool and hot tub, and loved how the water was so clean, and clear. The next day we had breakfast and loved the different varieties of food. They was something for everyone and my kids didn't complaint. After breakfast, my family got ready and went to the wedding. When we got back we went to some points of interest, and did some shopping in the area. I would recommend this to anyone looking for a nice, warm, cozy hotel in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r424395662-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>424395662</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Comfy bed, that's about it.</t>
+  </si>
+  <si>
+    <t>This place looked nice when you walk in. A nice open lobby, music playing and many places to sit and relax. However, it was a deceiving first image. When we went to check in, the woman forgot to give us keys so we had to ask for them. When we went to our rooms, each of us was slapped in the face by a foul smelling room that told us this was not a clean establishment. It smelled sort of like old food, but also like dirty clothes maybe? Later that night, I went down to the little marketplace in the lobby to purchase a candy bar and the woman working at the front desk had no shoes on. She was walking around barefoot. As an employee; I'm sure there's some kind of health code against this. Next, I went to check the gym out and it was smaller than the master bathroom in my home, and I don't even have a very large home. Later that night, I went to open the window to get some fresh air, only to realize that the window fully opens, about 5 feet. Huge safety hazard, especially if you have children in the room. Lastly, you could hear everything through those hotel room doors. Even if they were closed. Not a very expensive hotel, so I guess you get what you pay for. He cautioned before staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>This place looked nice when you walk in. A nice open lobby, music playing and many places to sit and relax. However, it was a deceiving first image. When we went to check in, the woman forgot to give us keys so we had to ask for them. When we went to our rooms, each of us was slapped in the face by a foul smelling room that told us this was not a clean establishment. It smelled sort of like old food, but also like dirty clothes maybe? Later that night, I went down to the little marketplace in the lobby to purchase a candy bar and the woman working at the front desk had no shoes on. She was walking around barefoot. As an employee; I'm sure there's some kind of health code against this. Next, I went to check the gym out and it was smaller than the master bathroom in my home, and I don't even have a very large home. Later that night, I went to open the window to get some fresh air, only to realize that the window fully opens, about 5 feet. Huge safety hazard, especially if you have children in the room. Lastly, you could hear everything through those hotel room doors. Even if they were closed. Not a very expensive hotel, so I guess you get what you pay for. He cautioned before staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r408989083-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>408989083</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>MOLDY, SMELLY, DIRTY</t>
+  </si>
+  <si>
+    <t>Made reservations based on TRIP ADVISOR.  We were too tired to go elsewhere.  MOLDY smell upon entering room, but not too bad, until we opened the bathroom door. The CEILING above the tub was BLACK.  Hubby checked the sheets, and they were clean, so we just went to bed. Front of air conditioned appeared to have NEVER been dusted.  Wide row of dust along the walls. No we did not inform manager that night, just went to bed.  When we informed front desk early, there was NO APOLOGY, nor offer of adjustment.  NEVER AGAIN.  AWFUL PLACE.MoreShow less</t>
+  </si>
+  <si>
+    <t>Made reservations based on TRIP ADVISOR.  We were too tired to go elsewhere.  MOLDY smell upon entering room, but not too bad, until we opened the bathroom door. The CEILING above the tub was BLACK.  Hubby checked the sheets, and they were clean, so we just went to bed. Front of air conditioned appeared to have NEVER been dusted.  Wide row of dust along the walls. No we did not inform manager that night, just went to bed.  When we informed front desk early, there was NO APOLOGY, nor offer of adjustment.  NEVER AGAIN.  AWFUL PLACE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r391381742-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>391381742</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>My family recently stayed at Comfort Inn in Humble. The staff was very friendly and professional. The breakfast area was well cleaned and stocked. Ashley, breakfast attendant, was very friendly. Friday the breakfast area was very busy with a group of school kids but Ashley kept the area clean and stocked with muffins, Danishes, scrambled eggs, sausage and drink items. My little boy enjoyed the waffle in the shape of Texas. The pool was warm but did have several leaves in the pool. The room was very clean and cold, which was a nice relief from the Houston Summer Heat. I would recommend this hotel for anyone staying in Houston area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>My family recently stayed at Comfort Inn in Humble. The staff was very friendly and professional. The breakfast area was well cleaned and stocked. Ashley, breakfast attendant, was very friendly. Friday the breakfast area was very busy with a group of school kids but Ashley kept the area clean and stocked with muffins, Danishes, scrambled eggs, sausage and drink items. My little boy enjoyed the waffle in the shape of Texas. The pool was warm but did have several leaves in the pool. The room was very clean and cold, which was a nice relief from the Houston Summer Heat. I would recommend this hotel for anyone staying in Houston area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r384738800-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>384738800</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with an amazing game staff</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels in the area, delicious hot breakfast, beautiful rooms, the staff are so friendly and they make you feel at home. Great family atmosphere. The pool and gazebo area is very relaxing, my children enjoyed it very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels in the area, delicious hot breakfast, beautiful rooms, the staff are so friendly and they make you feel at home. Great family atmosphere. The pool and gazebo area is very relaxing, my children enjoyed it very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r383493067-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>383493067</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel and excellent staff !!!</t>
+  </si>
+  <si>
+    <t>This hotel is excellent, the staff was friendly and helpful, specially Teresa from housekeeping ,  She  help me and made me feel  like my home.Room was very clean and comfortableWill stay here again A+++++MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is excellent, the staff was friendly and helpful, specially Teresa from housekeeping ,  She  help me and made me feel  like my home.Room was very clean and comfortableWill stay here again A+++++More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r383255949-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>383255949</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>This is my favorite place to stay every time Im in town, the staff makes me feel welcome and The executive house keeper Teresa makes sure that I have everything I need. Im very comfortable here! Everyone from the front desk to the housekeepers makes me want to come back and stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is my favorite place to stay every time Im in town, the staff makes me feel welcome and The executive house keeper Teresa makes sure that I have everything I need. Im very comfortable here! Everyone from the front desk to the housekeepers makes me want to come back and stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r375748226-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>375748226</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel at great price </t>
+  </si>
+  <si>
+    <t>We were attending a softball tournament in Kingwood and waited until late in the evening to book a room depending on outcome of tournament play. The room was very clean and comfortable. Front desk staff was awesome and very welcoming. Highly recommend if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>We were attending a softball tournament in Kingwood and waited until late in the evening to book a room depending on outcome of tournament play. The room was very clean and comfortable. Front desk staff was awesome and very welcoming. Highly recommend if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r373522444-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>373522444</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>As always the room was in good condition, the bed was very comfortable.  The staff was professional and pleasant.  We stay here when visiting our family, it is also convenient to stores and shopping . The breakfast was good and plentiful.  Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>As always the room was in good condition, the bed was very comfortable.  The staff was professional and pleasant.  We stay here when visiting our family, it is also convenient to stores and shopping . The breakfast was good and plentiful.  Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r372474214-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>372474214</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Relocating to Houston</t>
+  </si>
+  <si>
+    <t>As part of my relocation to the Houston area, I was given the option of staying at the hotel of my choosing.  I visited the Comfort Suites first followed by the Country Inn and finally the Hampton Inn along Highway 59.  I met the General Manager, Visha Gandhi, at my first visit.  She was professional, courteous, and gave my wife and a tour of the facility, washing facility, and fitness room. I compared the quoted nightly rate for 30 nights against the rates at the Country Inn and Hampton Inn.  Quotes from the other two hotels were anywhere from 50% to 100% more expensive.  I returned to the Comfort Inn and reserved the 30 nights.
+Once I was here, I was very happy with the size of my suite and the quality of the furnishings.  The facility is clean and management quickly responded to my inquiries.  The staff, whom I have come to know on a first name basis, followed the lead of their General Manager.
+Lastly, Denise runs the continental breakfast.  The food was hot and ready at 6:00 each morning so that I could eat and get to work early.  The offering is vast from sausage/bacon, scrambled eggs, potatoes, grits, biscuits/gravy, bagels, hard boiled eggs, yogurt, cereal, milk, fruit, and free coffee with unlimited French Vanilla creamer.  Denise became a fast friend.
+My only gripe is the 5 - 10 lbs. that I have gained since being here....As part of my relocation to the Houston area, I was given the option of staying at the hotel of my choosing.  I visited the Comfort Suites first followed by the Country Inn and finally the Hampton Inn along Highway 59.  I met the General Manager, Visha Gandhi, at my first visit.  She was professional, courteous, and gave my wife and a tour of the facility, washing facility, and fitness room. I compared the quoted nightly rate for 30 nights against the rates at the Country Inn and Hampton Inn.  Quotes from the other two hotels were anywhere from 50% to 100% more expensive.  I returned to the Comfort Inn and reserved the 30 nights.Once I was here, I was very happy with the size of my suite and the quality of the furnishings.  The facility is clean and management quickly responded to my inquiries.  The staff, whom I have come to know on a first name basis, followed the lead of their General Manager.Lastly, Denise runs the continental breakfast.  The food was hot and ready at 6:00 each morning so that I could eat and get to work early.  The offering is vast from sausage/bacon, scrambled eggs, potatoes, grits, biscuits/gravy, bagels, hard boiled eggs, yogurt, cereal, milk, fruit, and free coffee with unlimited French Vanilla creamer.  Denise became a fast friend.My only gripe is the 5 - 10 lbs. that I have gained since being here.  For that reason, it is best that I move on.  I highly recommend this hotel to the business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>As part of my relocation to the Houston area, I was given the option of staying at the hotel of my choosing.  I visited the Comfort Suites first followed by the Country Inn and finally the Hampton Inn along Highway 59.  I met the General Manager, Visha Gandhi, at my first visit.  She was professional, courteous, and gave my wife and a tour of the facility, washing facility, and fitness room. I compared the quoted nightly rate for 30 nights against the rates at the Country Inn and Hampton Inn.  Quotes from the other two hotels were anywhere from 50% to 100% more expensive.  I returned to the Comfort Inn and reserved the 30 nights.
+Once I was here, I was very happy with the size of my suite and the quality of the furnishings.  The facility is clean and management quickly responded to my inquiries.  The staff, whom I have come to know on a first name basis, followed the lead of their General Manager.
+Lastly, Denise runs the continental breakfast.  The food was hot and ready at 6:00 each morning so that I could eat and get to work early.  The offering is vast from sausage/bacon, scrambled eggs, potatoes, grits, biscuits/gravy, bagels, hard boiled eggs, yogurt, cereal, milk, fruit, and free coffee with unlimited French Vanilla creamer.  Denise became a fast friend.
+My only gripe is the 5 - 10 lbs. that I have gained since being here....As part of my relocation to the Houston area, I was given the option of staying at the hotel of my choosing.  I visited the Comfort Suites first followed by the Country Inn and finally the Hampton Inn along Highway 59.  I met the General Manager, Visha Gandhi, at my first visit.  She was professional, courteous, and gave my wife and a tour of the facility, washing facility, and fitness room. I compared the quoted nightly rate for 30 nights against the rates at the Country Inn and Hampton Inn.  Quotes from the other two hotels were anywhere from 50% to 100% more expensive.  I returned to the Comfort Inn and reserved the 30 nights.Once I was here, I was very happy with the size of my suite and the quality of the furnishings.  The facility is clean and management quickly responded to my inquiries.  The staff, whom I have come to know on a first name basis, followed the lead of their General Manager.Lastly, Denise runs the continental breakfast.  The food was hot and ready at 6:00 each morning so that I could eat and get to work early.  The offering is vast from sausage/bacon, scrambled eggs, potatoes, grits, biscuits/gravy, bagels, hard boiled eggs, yogurt, cereal, milk, fruit, and free coffee with unlimited French Vanilla creamer.  Denise became a fast friend.My only gripe is the 5 - 10 lbs. that I have gained since being here.  For that reason, it is best that I move on.  I highly recommend this hotel to the business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r350098854-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>350098854</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Definitely my choice</t>
+  </si>
+  <si>
+    <t>Was only there for one night but was very impressed.  A very friendly and accommodating staff welcomed me upon my arrival.  The hotel was very neat and clean and had a warm welcoming feeling to it.  The room was huge and very comfortable.  It had everything for an overnight or extended stay.  It was more than I expected as far as decor and feeling at home.  Nice king size bed, sofa, chair and coffee table, a work desk area and kitchenette area.  Lots of space and storage and large bathroom.  Nicest hotel I've stayed in and I travel quite a bit. And the complimentary breakfast buffet was awesome.  A large selection and prepared with pride.   Would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Was only there for one night but was very impressed.  A very friendly and accommodating staff welcomed me upon my arrival.  The hotel was very neat and clean and had a warm welcoming feeling to it.  The room was huge and very comfortable.  It had everything for an overnight or extended stay.  It was more than I expected as far as decor and feeling at home.  Nice king size bed, sofa, chair and coffee table, a work desk area and kitchenette area.  Lots of space and storage and large bathroom.  Nicest hotel I've stayed in and I travel quite a bit. And the complimentary breakfast buffet was awesome.  A large selection and prepared with pride.   Would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r350038302-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>350038302</t>
+  </si>
+  <si>
+    <t>Request a room away from the freeway on the back side of the hotel.</t>
+  </si>
+  <si>
+    <t>Great hotel! Love that it is near the airport, really good restaurants, and shopping. They have a wonderful outdoor area in the back of the hotel with a pool, separate covered sitting area and a grill for guests use. It is so relaxing after a long day of the road. Front desk staff are friendly and helpful. Really nice, but small fitness center. I was impressed with how well they maintain their fitness center with ice cold water and a A/C unit specific to the fitness center. Due to the high traffic on Hwy 59, request a room that does not face the freeway. Front desk staff were very accommodating when I requested this. I have stayed at this hotel multiple times and would recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel! Love that it is near the airport, really good restaurants, and shopping. They have a wonderful outdoor area in the back of the hotel with a pool, separate covered sitting area and a grill for guests use. It is so relaxing after a long day of the road. Front desk staff are friendly and helpful. Really nice, but small fitness center. I was impressed with how well they maintain their fitness center with ice cold water and a A/C unit specific to the fitness center. Due to the high traffic on Hwy 59, request a room that does not face the freeway. Front desk staff were very accommodating when I requested this. I have stayed at this hotel multiple times and would recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r344282143-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>344282143</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Nice, comfortable hotel</t>
+  </si>
+  <si>
+    <t>Had a one night stay (on points) at this hotel.  Very clean, very nice, very comfortable hotel.  The staff was very friendly, greeted me acknowledging that I was a gold member.  Remembered to give my by complimentary items at checkin (have had some not remember to do this).  If you have business up on the north side of Houston or need a hotel that is fairly convenient to IAH (George Bush Airport)...this is a good option.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Had a one night stay (on points) at this hotel.  Very clean, very nice, very comfortable hotel.  The staff was very friendly, greeted me acknowledging that I was a gold member.  Remembered to give my by complimentary items at checkin (have had some not remember to do this).  If you have business up on the north side of Houston or need a hotel that is fairly convenient to IAH (George Bush Airport)...this is a good option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r329619308-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>329619308</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Keep coming back!!!</t>
+  </si>
+  <si>
+    <t>I travel a lot with my husband - and when I have a choice I keep coming back to this hotel when we are in town. Always clean - friendly service - comfortable beds. I am not a huge fan of the decor (seems a little outdated) but I have seen they updated the art in the room.  Nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>I travel a lot with my husband - and when I have a choice I keep coming back to this hotel when we are in town. Always clean - friendly service - comfortable beds. I am not a huge fan of the decor (seems a little outdated) but I have seen they updated the art in the room.  Nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r327795649-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>327795649</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Nice stay but fantastic breakfast!</t>
+  </si>
+  <si>
+    <t>We came to see our children who now live in the area. Our stay lasted a week. The bed was comfortable. The staff was great. For lunch and dinner, you need transportation. There are no food places within walking distance. The best thing was the full breakfast which was excellent!  It was also nice having water, fruit, and coffee available all day. There is a little shoppette where you can buy food, although a little pricey.  Overall the stay was very good and we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to see our children who now live in the area. Our stay lasted a week. The bed was comfortable. The staff was great. For lunch and dinner, you need transportation. There are no food places within walking distance. The best thing was the full breakfast which was excellent!  It was also nice having water, fruit, and coffee available all day. There is a little shoppette where you can buy food, although a little pricey.  Overall the stay was very good and we will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r320502922-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>320502922</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean with pleasant staff</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it was a little distance from downtown Houston.  There is excellent shopping nearby and has easy access to the interstate which takes you quickly to all areas in Houston.  The bed was comfortable,  the wifi was great, the room was spotless, particularly the bathroom.  I did not use the pool or have breakfast but the coffee really hit the spot.  I would recommend to all my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Visha G, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it was a little distance from downtown Houston.  There is excellent shopping nearby and has easy access to the interstate which takes you quickly to all areas in Houston.  The bed was comfortable,  the wifi was great, the room was spotless, particularly the bathroom.  I did not use the pool or have breakfast but the coffee really hit the spot.  I would recommend to all my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r298956769-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>298956769</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Comfy Stay</t>
+  </si>
+  <si>
+    <t>The staff was exceptionally friendly and accommodating to my needs.  Room was very clean and comfy.  The pool was well maintained and clean.  The breakfast was delicious.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>The staff was exceptionally friendly and accommodating to my needs.  Room was very clean and comfy.  The pool was well maintained and clean.  The breakfast was delicious.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r296038653-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>296038653</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Kayla's Customer Service</t>
+  </si>
+  <si>
+    <t>Kayla's customer service was off the charts, she went above and beyond in great service. We hosted a Family Baby shower to celebrate the arrival of my first granddaughter. Kayla' willingness to help was amazing. She even helped wrapped gifts! Her efforts was really appreciated, as it was a terrible weather day, pouring rain storms, and we were really running behind schedule due to the weather, etc. The Baby Shower was on a Sunday (May 17th 2015) Kayla should get the Customer Service Gold Standard Award :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Kayla's customer service was off the charts, she went above and beyond in great service. We hosted a Family Baby shower to celebrate the arrival of my first granddaughter. Kayla' willingness to help was amazing. She even helped wrapped gifts! Her efforts was really appreciated, as it was a terrible weather day, pouring rain storms, and we were really running behind schedule due to the weather, etc. The Baby Shower was on a Sunday (May 17th 2015) Kayla should get the Customer Service Gold Standard Award :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r294515977-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>294515977</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Dirty and smelly with No Airport Shuttle</t>
+  </si>
+  <si>
+    <t>Used TripAdvisor to find a room. Never deceived in the past but this was terrible. Online booking promised a shuttle, and while one sat in their lot the one way fare was $30 from the airport. Arrived late, hotel is old and dated, smells of stale food odors in halls and rooms. Big room, but was not clean with cracks across entire bathroom tile, dirt in elevators and grimy appearance in rooms. Checked out after ten minutes with no refund. Another hotel sent a van after we were stranded. Terrible start to an otherwise flawless European vacation with my granddaughter. The prior reviews on this site misrepresent the reality of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Used TripAdvisor to find a room. Never deceived in the past but this was terrible. Online booking promised a shuttle, and while one sat in their lot the one way fare was $30 from the airport. Arrived late, hotel is old and dated, smells of stale food odors in halls and rooms. Big room, but was not clean with cracks across entire bathroom tile, dirt in elevators and grimy appearance in rooms. Checked out after ten minutes with no refund. Another hotel sent a van after we were stranded. Terrible start to an otherwise flawless European vacation with my granddaughter. The prior reviews on this site misrepresent the reality of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r289969819-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>289969819</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Front Desk</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel the lobby has a grand entrance. I just love it. Also the front desk worker name Rosa was extremely professional, knowledgeable and helpful. She gave exceptional customer service. I love Comfort Suites hotels anyway but I will definitely choose this hotel again when visiting this part of texas because of the customer service I received from Rosa.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visha_8, Director of Sales at Comfort Suites Humble Houston North, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Upon entering the hotel the lobby has a grand entrance. I just love it. Also the front desk worker name Rosa was extremely professional, knowledgeable and helpful. She gave exceptional customer service. I love Comfort Suites hotels anyway but I will definitely choose this hotel again when visiting this part of texas because of the customer service I received from Rosa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r289687886-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>289687886</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay...  Makes me feel at home </t>
+  </si>
+  <si>
+    <t>I'm very satisfied  with our stay here in the Comfort Suites.  We had  a problem with our other hotel we were staying at and you all helped us out and welcomed us in a very friendly manner.  Everything is very clean and taken care of and staff is very friendly. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>I'm very satisfied  with our stay here in the Comfort Suites.  We had  a problem with our other hotel we were staying at and you all helped us out and welcomed us in a very friendly manner.  Everything is very clean and taken care of and staff is very friendly. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r288878741-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>288878741</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Away from home </t>
+  </si>
+  <si>
+    <t>I enjoi staying at this place hotel was so clean ,breakfast was delicious.. Everybody was friendly .the pool  so  clean water blue ! The staff tried there  best. To help for directions  to a near mall..very convenience to  airport ,and hospital arrownd the corner .. I will definitely stay here  again ..we love it MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Visha_8, Director of Sales at Comfort Suites Humble Houston North, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>I enjoi staying at this place hotel was so clean ,breakfast was delicious.. Everybody was friendly .the pool  so  clean water blue ! The staff tried there  best. To help for directions  to a near mall..very convenience to  airport ,and hospital arrownd the corner .. I will definitely stay here  again ..we love it More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r284376554-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>284376554</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Staff is great!</t>
+  </si>
+  <si>
+    <t>Ms Ghandi is the manager. She is very knowledgeable and pay special attention to your needs. She help the guest with local activities as well. The staff is really kind.They have a nice banquet room for all of your needs. A good place to hold an event or function.Thanks Denise HWNH MoreShow less</t>
+  </si>
+  <si>
+    <t>Ms Ghandi is the manager. She is very knowledgeable and pay special attention to your needs. She help the guest with local activities as well. The staff is really kind.They have a nice banquet room for all of your needs. A good place to hold an event or function.Thanks Denise HWNH More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r283903860-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>283903860</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Stayed here at this hotel couple of times before with friends. I had to come back to Humble, Texas and this is the place I chose to come back from my prior stays..Staff is very friendly and welcoming.. Rooms are very clean and breakfast is great to start the morning.. Everytime I am in town this is the place I would be booking at..Great job to all the employees..keep up the good work..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here at this hotel couple of times before with friends. I had to come back to Humble, Texas and this is the place I chose to come back from my prior stays..Staff is very friendly and welcoming.. Rooms are very clean and breakfast is great to start the morning.. Everytime I am in town this is the place I would be booking at..Great job to all the employees..keep up the good work..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r283660569-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>283660569</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent customer service &amp; quality</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel a few weeks ago and and I must say that out of the many hotels ive stayed in, this is one of the very few that I prefer to stay. From the parking lot to the hotel rolm, everything is very organized and clean. The customer service was excellent and the rooms were very clean and fully equipped with the essentials being provided in the description. I give it a double thumbs up and a 5 star ratingMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel a few weeks ago and and I must say that out of the many hotels ive stayed in, this is one of the very few that I prefer to stay. From the parking lot to the hotel rolm, everything is very organized and clean. The customer service was excellent and the rooms were very clean and fully equipped with the essentials being provided in the description. I give it a double thumbs up and a 5 star ratingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r277863285-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>277863285</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Great Sales Manager!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying here two nights for work.  The sales manager, Kayla Brewer, had maybe the best personality and customer service I've came across.  Kayla went out of her way to help me figure out how to setup a personal device to the television and get my hotel rewards activated and added.  Next time I'm in Spring I will make reservations here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying here two nights for work.  The sales manager, Kayla Brewer, had maybe the best personality and customer service I've came across.  Kayla went out of her way to help me figure out how to setup a personal device to the television and get my hotel rewards activated and added.  Next time I'm in Spring I will make reservations here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r273708513-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273708513</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Manager of Ecological Services</t>
+  </si>
+  <si>
+    <t>The service at the front desk was great. The folks greeted us with a smile and the check-in was really quick.  The rooms were comfy and had everything I needed.  I brought a trailer and ATV so the cameras in the parkinglot made me feel safer about leaving my work equipment outside.  Overall, it was a great stay and I'll be back!ClaytonMoreShow less</t>
+  </si>
+  <si>
+    <t>The service at the front desk was great. The folks greeted us with a smile and the check-in was really quick.  The rooms were comfy and had everything I needed.  I brought a trailer and ATV so the cameras in the parkinglot made me feel safer about leaving my work equipment outside.  Overall, it was a great stay and I'll be back!ClaytonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r273611931-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273611931</t>
+  </si>
+  <si>
+    <t>Amazing Hotel</t>
+  </si>
+  <si>
+    <t>I had a great stay at the hotel. The staff was very welcoming and helpful. The breakfast was also amazing, I will be staying with them again. They made sure that I had everything needed and was so warm and kind. Room was clean and housekeeping was very honest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visha_8, Director of Sales at Comfort Suites Humble Houston North, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I had a great stay at the hotel. The staff was very welcoming and helpful. The breakfast was also amazing, I will be staying with them again. They made sure that I had everything needed and was so warm and kind. Room was clean and housekeeping was very honest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r262882286-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>262882286</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Good location, near airport</t>
+  </si>
+  <si>
+    <t>The hotel had a bit of a facelift, but they still have a long way to go.The rooms were clean, staff was friendly. However, the rooms were very noisy. The windows are old and don't fully close (safety hazard here too), which let's in a lot of the highway noise. I was also afraid of someone getting into the room because it wouldn't latch closed.The pool was nice, it was too cold for swimming and the hot tub had caution tape all around it, closing it off. So, I was a bit disappointed about that, it was one of the reasons I chose this hotel.I didn't stay for breakfast, but the lobby was nicely decorated and they had a lot of seating for diners.I won't stay here again, it was not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>The hotel had a bit of a facelift, but they still have a long way to go.The rooms were clean, staff was friendly. However, the rooms were very noisy. The windows are old and don't fully close (safety hazard here too), which let's in a lot of the highway noise. I was also afraid of someone getting into the room because it wouldn't latch closed.The pool was nice, it was too cold for swimming and the hot tub had caution tape all around it, closing it off. So, I was a bit disappointed about that, it was one of the reasons I chose this hotel.I didn't stay for breakfast, but the lobby was nicely decorated and they had a lot of seating for diners.I won't stay here again, it was not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r262545104-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>262545104</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Clean but loud and worn.</t>
+  </si>
+  <si>
+    <t>The room was clean but the window was broken and would not close which let all of traffic noise in.  Hot tub was out of order and it was too cold for the outside pool.  Would not recommend this hotel they need to do some work on the building. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean but the window was broken and would not close which let all of traffic noise in.  Hot tub was out of order and it was too cold for the outside pool.  Would not recommend this hotel they need to do some work on the building. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r248477516-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>248477516</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>Make sure your room is not on the first floor, very noisy.  There was a lot of rust in the bathroom too. Also, WiFi might be free but it's terrible! Hard to connect, you have to keep reconnecting, and if it was any slower you would die before you complete what you are doing.  Good breakfast every morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Make sure your room is not on the first floor, very noisy.  There was a lot of rust in the bathroom too. Also, WiFi might be free but it's terrible! Hard to connect, you have to keep reconnecting, and if it was any slower you would die before you complete what you are doing.  Good breakfast every morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r236062088-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>236062088</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Amazing service</t>
+  </si>
+  <si>
+    <t>I appreciated how housekeeping was always attentive to our needs, we stayed for a week and I have no complaints...rooms are clean, gym is spotless, the pool area is amazing! I highly recommend this hotel! It's very spacious with comfortable beds and couches....I do want to thank Mr.Teresa from housekeeping, she was awesome, giving me information on local attractions in the area and offering a helping hand. In all thank you Comfort Suites for your great services, we will definetly keep you in mind next time were in the city MoreShow less</t>
+  </si>
+  <si>
+    <t>Director O, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>I appreciated how housekeeping was always attentive to our needs, we stayed for a week and I have no complaints...rooms are clean, gym is spotless, the pool area is amazing! I highly recommend this hotel! It's very spacious with comfortable beds and couches....I do want to thank Mr.Teresa from housekeeping, she was awesome, giving me information on local attractions in the area and offering a helping hand. In all thank you Comfort Suites for your great services, we will definetly keep you in mind next time were in the city More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r227217980-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>227217980</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Nice Rooms, Comfortable Beds.</t>
+  </si>
+  <si>
+    <t>This was a good hotel. The room was large with two very comfortable beds, a desk, a sofa, eating table and small kitchenette. My daughter and I stayed for one night on our layover. The only negative things were there was no shuttle from the airport and there were no nearby restaurants without taking another taxi. The lady at the front desk was great, giving us some takeout menus and arranged for our taxi in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This was a good hotel. The room was large with two very comfortable beds, a desk, a sofa, eating table and small kitchenette. My daughter and I stayed for one night on our layover. The only negative things were there was no shuttle from the airport and there were no nearby restaurants without taking another taxi. The lady at the front desk was great, giving us some takeout menus and arranged for our taxi in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r221690575-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>221690575</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Comfortable beds</t>
+  </si>
+  <si>
+    <t>This is our normal place to stay when we are in the Houston area. Great pool area, pretty quite even though next to a major freeway. Nothing to complain about except maybe that the rooms are not up to date like the rest of the place (really don't like the curtains!!) They do seem to have the best beds - always have a very good sleep!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>This is our normal place to stay when we are in the Houston area. Great pool area, pretty quite even though next to a major freeway. Nothing to complain about except maybe that the rooms are not up to date like the rest of the place (really don't like the curtains!!) They do seem to have the best beds - always have a very good sleep!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r210656725-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>210656725</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms and staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myself, My husband, our little boy and a co-worker stayed for a little over a week here for my husbands work. The rooms were clean updated and in good repair as well as the common areas. I did notice they are a little lacking on maintenance with the pool and outside areas but overall good breakfast, good bed and linens and some nice outdoor extras made for a great stay!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r209757351-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>209757351</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Convienent and Nice</t>
+  </si>
+  <si>
+    <t>Comfort Suites is always our first choice and this property lives up to their lofty standards. Staff was great and worked with me through all of my reservations. Hotel was clean and easily accessible. Breakfast was really good and there was plenty without having to wait, even during the rush.  They allowed us to have all 6 rooms on the same floor, which made things easier for me. Just a very good experience.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r209726699-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>209726699</t>
+  </si>
+  <si>
+    <t>Average hotel, no airport shuttle, $30 taxi ride each way.</t>
+  </si>
+  <si>
+    <t>Booked this hotel thru Hotwire, good price, but buyer beware.  No airport shuttle to from airport, web site says it has shuttle, rooms are pretty big, spacious, breakfast was eggs, sausage, potatoes, biscuits gravy and other continental stuff.  Loud hallways, next to major highway 59, and the staff was pretty good .  The pool area outside was not as clean as it should be, debris near drains and the door to get back into hotel was broken, iratating when you have wet kids.  When you spend 84 bucks a night, maybe I'm asking for too much in a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r195367896-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>195367896</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>I had made a reservation at this hotel and was really happy with the staff and the professionalism they showed. The rooms were very spacious and comfortable. I give this hotel very good marks on not just the staff but the cleanliness of this hotel. I will definitely keep this hotel on the top of my list if I'm back in this town. It is highly recommended!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r195008623-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>195008623</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>business travel</t>
+  </si>
+  <si>
+    <t>was in humble for the first time booked online so wasn't to sure what to expect when i arrived at the hotel i was greeted by a friendly front desk clerk went to the room which was very clean great bed had a good sleep woke up in the morning had the breakfast and was on my way. if your looking for a good place with great rates and clean rooms and good service this hotel is the place. happy traveling....</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r192366045-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>192366045</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Unusually great hotel for this chain</t>
+  </si>
+  <si>
+    <t>Often booked solid so get there early if you want to have a choice of rooms.  Clean up-to-date comfortable beds with white sheets (mine had a small permanent black streak on it) with white blankets and mattress wrapped in a protective cover, hide a bed sofa, desk, comfortable chair, refrigerator, microwave and separate tiny sink made for a nice little kitchen area, free true hot breakfast, free wifi, free parking, baby grand piano in the lobby that guest can play, noisy but functional elevator, outdoor pool, mini-store for buying food if you arrive late or want a snack, good coffee.
+A 100% non smoking hotel but because smokers often have smoke smells on their clothing, bring deodorizing spray just in case you get a room that a smoker stayed in.
+Had a little odor that may have been sanitizing spray but the smell disappeared when the ventilation turned on.I am very sensitive to odors and allergens but had no problems in this room. I will always try to stay at this hotel when in the Houston area. I often go to Houston to visit Lakewood Church in South Houston or Galveston Island. This is the first hotel in an affordable price range that I have found that has so many amenities and is smoke-free --at regular price.
+I usually avoid this chain but due to an unfortunate situation, this was the hotel I was assigned by a third party booking...Often booked solid so get there early if you want to have a choice of rooms.  Clean up-to-date comfortable beds with white sheets (mine had a small permanent black streak on it) with white blankets and mattress wrapped in a protective cover, hide a bed sofa, desk, comfortable chair, refrigerator, microwave and separate tiny sink made for a nice little kitchen area, free true hot breakfast, free wifi, free parking, baby grand piano in the lobby that guest can play, noisy but functional elevator, outdoor pool, mini-store for buying food if you arrive late or want a snack, good coffee.A 100% non smoking hotel but because smokers often have smoke smells on their clothing, bring deodorizing spray just in case you get a room that a smoker stayed in.Had a little odor that may have been sanitizing spray but the smell disappeared when the ventilation turned on.I am very sensitive to odors and allergens but had no problems in this room. I will always try to stay at this hotel when in the Houston area. I often go to Houston to visit Lakewood Church in South Houston or Galveston Island. This is the first hotel in an affordable price range that I have found that has so many amenities and is smoke-free --at regular price.I usually avoid this chain but due to an unfortunate situation, this was the hotel I was assigned by a third party booking site. I was a bit worried about its 85% recommended rating because I try very hard not to stay at a hotel recommended hotel less than 90%. From now on I will consider 85% hotels because this hotel was so clean and the staff was so kind. I can see how this hotel did not make the 90% recommended rating but for this chain and this price it is a 100% recommended. (Do I sound like a seasoned traveler yet?) The carpet was clean so I can recommend this hotel for families with kids. The room was big so I can recommend it for people who need more space. I have a family member who uses a wheelchair and one who uses a walker so I try to address this situation as I review. In the regular room, the bathroom is by the front door and would be a bit tight for those using a wheelchair or walker. I am sure they have wheelchair accessible rooms but if you must get a regular room, the beds are a bit tall because they are modern and the bathrooms are a bit small. The water flow in the shower was weak until I figured out that the showerhead was adjustable then the water flow was just fine with plenty of hot water.I have heard that the even numbered rooms face the highway and are noisy. My room had no view at all and I was in an odd numbered room which was very quiet on the second floor.I arrived late at night very tired and frustrated but I had no worries in this hotel. I will try to book this hotel outright in the future wen in the area. There is no where to walk to in this area. You need a car although the hotel has a shuttle. Its a bit of a drive to the airport but not bad if you stay on the side roads. There is a huge upscale  indoor shopping mall within a 10 minute drive. On my trip I found some great deals at the mall. I had my own car but I suspect the hotel shuttle would drop you off if you wanted to get out an about. There are golfing places, state and federal parks, and colleges nearby.The owners clearly care about their hotel. I agree that the report by some reviewers is true that the furniture is dated. At what point does "dated" become "classic" or "antique" ?  So yes, the furnishings are dated but they are very clean and that is what I care about the most. If you want a modern hotel, go into Houston and pay more. I had just rejected a paid room at an "updated" hotel that reeked of stale cigarette smoke. When these hotels update their furniture, the customer pays for those updates. The furniture was very clean, a bit worn over time, but clean. the paint was chipping in the shower  which is a maintenance issue that I hope the hotel will address before it gets too bad. I am tall so I see more than most people. I advise them to "look up" because housekeeping is usually looking down when they clean. Overall, a very clean and friendly hotel with free hot breakfast, free wifi, and free parking. The furniture is a bit dated and worn from use-- but its clean. The owners care about their hotel which means that this hotel is better than average for this chain and for this price. I would like to keep this hotel a secret but that would not be fair to people like me who desperately need a good night's sleep on a good bed. I believe the reviewers were right about the rooms facing the highway as noisy so bring something with you to cover the noise if you know that you are a light sleeper. I used a Pandora station for sleeping to cover small noticed (but put a block on my door so an invader would have to make a lot of noise to get inside.) I also recommend booking this hotel in advance because it fills quickly. Read the other reviews as I have them to be accurate. The difference between mine and theirs is that I received a discounted rate and they paid a much higher price. If I paid their standard rate I might have been disappointed too. About the internet, I use my phone for a hotspot when I travel. I am unsure if they have a LAN connection or extra LAN cables so maybe call in advance before you book or before you leave home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Often booked solid so get there early if you want to have a choice of rooms.  Clean up-to-date comfortable beds with white sheets (mine had a small permanent black streak on it) with white blankets and mattress wrapped in a protective cover, hide a bed sofa, desk, comfortable chair, refrigerator, microwave and separate tiny sink made for a nice little kitchen area, free true hot breakfast, free wifi, free parking, baby grand piano in the lobby that guest can play, noisy but functional elevator, outdoor pool, mini-store for buying food if you arrive late or want a snack, good coffee.
+A 100% non smoking hotel but because smokers often have smoke smells on their clothing, bring deodorizing spray just in case you get a room that a smoker stayed in.
+Had a little odor that may have been sanitizing spray but the smell disappeared when the ventilation turned on.I am very sensitive to odors and allergens but had no problems in this room. I will always try to stay at this hotel when in the Houston area. I often go to Houston to visit Lakewood Church in South Houston or Galveston Island. This is the first hotel in an affordable price range that I have found that has so many amenities and is smoke-free --at regular price.
+I usually avoid this chain but due to an unfortunate situation, this was the hotel I was assigned by a third party booking...Often booked solid so get there early if you want to have a choice of rooms.  Clean up-to-date comfortable beds with white sheets (mine had a small permanent black streak on it) with white blankets and mattress wrapped in a protective cover, hide a bed sofa, desk, comfortable chair, refrigerator, microwave and separate tiny sink made for a nice little kitchen area, free true hot breakfast, free wifi, free parking, baby grand piano in the lobby that guest can play, noisy but functional elevator, outdoor pool, mini-store for buying food if you arrive late or want a snack, good coffee.A 100% non smoking hotel but because smokers often have smoke smells on their clothing, bring deodorizing spray just in case you get a room that a smoker stayed in.Had a little odor that may have been sanitizing spray but the smell disappeared when the ventilation turned on.I am very sensitive to odors and allergens but had no problems in this room. I will always try to stay at this hotel when in the Houston area. I often go to Houston to visit Lakewood Church in South Houston or Galveston Island. This is the first hotel in an affordable price range that I have found that has so many amenities and is smoke-free --at regular price.I usually avoid this chain but due to an unfortunate situation, this was the hotel I was assigned by a third party booking site. I was a bit worried about its 85% recommended rating because I try very hard not to stay at a hotel recommended hotel less than 90%. From now on I will consider 85% hotels because this hotel was so clean and the staff was so kind. I can see how this hotel did not make the 90% recommended rating but for this chain and this price it is a 100% recommended. (Do I sound like a seasoned traveler yet?) The carpet was clean so I can recommend this hotel for families with kids. The room was big so I can recommend it for people who need more space. I have a family member who uses a wheelchair and one who uses a walker so I try to address this situation as I review. In the regular room, the bathroom is by the front door and would be a bit tight for those using a wheelchair or walker. I am sure they have wheelchair accessible rooms but if you must get a regular room, the beds are a bit tall because they are modern and the bathrooms are a bit small. The water flow in the shower was weak until I figured out that the showerhead was adjustable then the water flow was just fine with plenty of hot water.I have heard that the even numbered rooms face the highway and are noisy. My room had no view at all and I was in an odd numbered room which was very quiet on the second floor.I arrived late at night very tired and frustrated but I had no worries in this hotel. I will try to book this hotel outright in the future wen in the area. There is no where to walk to in this area. You need a car although the hotel has a shuttle. Its a bit of a drive to the airport but not bad if you stay on the side roads. There is a huge upscale  indoor shopping mall within a 10 minute drive. On my trip I found some great deals at the mall. I had my own car but I suspect the hotel shuttle would drop you off if you wanted to get out an about. There are golfing places, state and federal parks, and colleges nearby.The owners clearly care about their hotel. I agree that the report by some reviewers is true that the furniture is dated. At what point does "dated" become "classic" or "antique" ?  So yes, the furnishings are dated but they are very clean and that is what I care about the most. If you want a modern hotel, go into Houston and pay more. I had just rejected a paid room at an "updated" hotel that reeked of stale cigarette smoke. When these hotels update their furniture, the customer pays for those updates. The furniture was very clean, a bit worn over time, but clean. the paint was chipping in the shower  which is a maintenance issue that I hope the hotel will address before it gets too bad. I am tall so I see more than most people. I advise them to "look up" because housekeeping is usually looking down when they clean. Overall, a very clean and friendly hotel with free hot breakfast, free wifi, and free parking. The furniture is a bit dated and worn from use-- but its clean. The owners care about their hotel which means that this hotel is better than average for this chain and for this price. I would like to keep this hotel a secret but that would not be fair to people like me who desperately need a good night's sleep on a good bed. I believe the reviewers were right about the rooms facing the highway as noisy so bring something with you to cover the noise if you know that you are a light sleeper. I used a Pandora station for sleeping to cover small noticed (but put a block on my door so an invader would have to make a lot of noise to get inside.) I also recommend booking this hotel in advance because it fills quickly. Read the other reviews as I have them to be accurate. The difference between mine and theirs is that I received a discounted rate and they paid a much higher price. If I paid their standard rate I might have been disappointed too. About the internet, I use my phone for a hotspot when I travel. I am unsure if they have a LAN connection or extra LAN cables so maybe call in advance before you book or before you leave home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r191745512-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>191745512</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Great home away from home for business traveler</t>
+  </si>
+  <si>
+    <t>I commute to Houston for work and stay on average 4-5 nights a week. I've stayed in several hotels in the Houston area before I found a this hotel and decided to make it my home away from home. The appearance and cleanliness of the hotel jumped out immediately (recently remodeled) and the staff is very friendly. The rooms are large with nice beds, pillows, tons of outlets, nice TV, fridge and microwave. The work out room is nice but the hotel even offers complimentary passes to the local Golds Gym!The management is extremely professional and accommodating. Several times a night they have a manager's special in the evening where food and drinks are served. Room pricing is very reasonable. I'm a "road warrior" and have stayed in a lot of hotels so if you are in the North Houston area would highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I commute to Houston for work and stay on average 4-5 nights a week. I've stayed in several hotels in the Houston area before I found a this hotel and decided to make it my home away from home. The appearance and cleanliness of the hotel jumped out immediately (recently remodeled) and the staff is very friendly. The rooms are large with nice beds, pillows, tons of outlets, nice TV, fridge and microwave. The work out room is nice but the hotel even offers complimentary passes to the local Golds Gym!The management is extremely professional and accommodating. Several times a night they have a manager's special in the evening where food and drinks are served. Room pricing is very reasonable. I'm a "road warrior" and have stayed in a lot of hotels so if you are in the North Houston area would highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r190455894-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>190455894</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>clean hotel and great staff</t>
+  </si>
+  <si>
+    <t>Was visiting relatives during the holidays, this hotel was close by so stopped in to see about renting a room for the nite. we were shown a room and we decided to stay for a couple nites.The rooms are clean and all the staff from the young girl who checked us in and the cleaning staff were all very helpful .It was nice to start our busy day off with the hot breakfast provided that next morning. Every time  we left or returned to the hotel we were greeted as though we always stayed there, a comforting feeling when your from out of state. If your ever in the Kingwood Texas area I recommend this hotel you wont be dispointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was visiting relatives during the holidays, this hotel was close by so stopped in to see about renting a room for the nite. we were shown a room and we decided to stay for a couple nites.The rooms are clean and all the staff from the young girl who checked us in and the cleaning staff were all very helpful .It was nice to start our busy day off with the hot breakfast provided that next morning. Every time  we left or returned to the hotel we were greeted as though we always stayed there, a comforting feeling when your from out of state. If your ever in the Kingwood Texas area I recommend this hotel you wont be dispointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r190447273-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>190447273</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I have been staying here on average 3 nights a week since June of 2013 for buisness. Originally I picked this hotel due to location from work which is about 2 miles away but have quickly come to enjoy staying here. Staff is very curtious and has always greeted me with a smile. My rooms have always been neat and clean. The bedding and pillows are very comfortable. Breakfast served in the morning with good selections is a plus. Room pricing is very reasonable. If in the Kingwood/Humble area would highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r180237115-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>180237115</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Don't go for the hot tub!</t>
+  </si>
+  <si>
+    <t>The property is beautifully maintained and attractive, and the rates were very reasonable, which is why we chose his hotel while visiting friends in Kingwood, Tx just a few miles away.  The bed was very soft, although the room was so comfortable and roomy.  The hot breakfast was very good, plenty of scrambled eggs and sausage patties, plus all the other standard breakfast fare.  That being said, there were also negatives.  Our biggest complaint was the hot tub - it was outside in a nice pool area, but the water temperature was almost cool.  And there were 2 tiny jets that did little but make a few bubbles.  We stayed 2 nights but didn't even bother going back to the "not-so-hot" tub the second night.  The shower was great - but the curtain rod was installed so high that the curtain barely came past the tub - so water went all over the floor, which then meant I used up most of the towels just mopping up the floor.  Honestly, if I make this trip again I'll probably seriously consider a different chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The property is beautifully maintained and attractive, and the rates were very reasonable, which is why we chose his hotel while visiting friends in Kingwood, Tx just a few miles away.  The bed was very soft, although the room was so comfortable and roomy.  The hot breakfast was very good, plenty of scrambled eggs and sausage patties, plus all the other standard breakfast fare.  That being said, there were also negatives.  Our biggest complaint was the hot tub - it was outside in a nice pool area, but the water temperature was almost cool.  And there were 2 tiny jets that did little but make a few bubbles.  We stayed 2 nights but didn't even bother going back to the "not-so-hot" tub the second night.  The shower was great - but the curtain rod was installed so high that the curtain barely came past the tub - so water went all over the floor, which then meant I used up most of the towels just mopping up the floor.  Honestly, if I make this trip again I'll probably seriously consider a different chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r174403676-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>174403676</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>My wife and i stayed here for 2 days after our wedding in the suite, everything and everyone were very nice, we even took our post wedding photos in their beautiful lobby! The hot tub in the room and the outside pool area were very relaxing as well</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r170731810-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>170731810</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>In Kingwood for a bridal shower and stayed at this location based on previous comments read on Trip Advisor.  Room was very clean, cool and spacious.  Did not like bed too much.  Mattress was much too soft for our liking.  Other than that, everything was lovely.  The check in person was very personable and we had a good time joking with her.  She even remembered us after we went out for the evening and came back around 11 p.m.  The breakfast buffet was very nice.  Lots of items to choose.  Did not leave hungry.  Will definitely stop here on our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2013</t>
+  </si>
+  <si>
+    <t>In Kingwood for a bridal shower and stayed at this location based on previous comments read on Trip Advisor.  Room was very clean, cool and spacious.  Did not like bed too much.  Mattress was much too soft for our liking.  Other than that, everything was lovely.  The check in person was very personable and we had a good time joking with her.  She even remembered us after we went out for the evening and came back around 11 p.m.  The breakfast buffet was very nice.  Lots of items to choose.  Did not leave hungry.  Will definitely stop here on our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r159538162-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159538162</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Elegance and Styly for a Great Price</t>
+  </si>
+  <si>
+    <t>As you can tell, I don’t have a lot of time to do these reviews, so when I do, I am usually really impressed. I LOVE this hotel! Visha and PJ do a great job running this property and make their guests fell like they are staying in a swanky place that should be much higher priced. Their Staff of Brenda, Terri, Nichole, Teresa and a few new arrivals are really on top of their game and take great care of their guests. When you first walk in, the lobby is elegant and stylish with its baby grand piano, high ceilings, large museum like pillars and nice music playing. The property was first owned, designed and built by a designer and it shows. Very Nice! Great outdoor pool and covered gazebo style barbeque area for sunbathing and relaxing and unwinding in the evenings. I have seen business groups gather in the evenings to enjoy fellowship and "refreshments" in the lobby, and out by the pool. They just finished upgrading their fitness room to include an elliptical, a treadmill, a weight machine and free weights. The hotel also offers shuttle service to the airport and other places. On another note, I recently noticed special needs children cleaning in the lobby. Visha and PJ participate in a program in one of the local high schools providing an opportunity for the kids to come out and work a few hours on Mondays, Tuesdays...As you can tell, I don’t have a lot of time to do these reviews, so when I do, I am usually really impressed. I LOVE this hotel! Visha and PJ do a great job running this property and make their guests fell like they are staying in a swanky place that should be much higher priced. Their Staff of Brenda, Terri, Nichole, Teresa and a few new arrivals are really on top of their game and take great care of their guests. When you first walk in, the lobby is elegant and stylish with its baby grand piano, high ceilings, large museum like pillars and nice music playing. The property was first owned, designed and built by a designer and it shows. Very Nice! Great outdoor pool and covered gazebo style barbeque area for sunbathing and relaxing and unwinding in the evenings. I have seen business groups gather in the evenings to enjoy fellowship and "refreshments" in the lobby, and out by the pool. They just finished upgrading their fitness room to include an elliptical, a treadmill, a weight machine and free weights. The hotel also offers shuttle service to the airport and other places. On another note, I recently noticed special needs children cleaning in the lobby. Visha and PJ participate in a program in one of the local high schools providing an opportunity for the kids to come out and work a few hours on Mondays, Tuesdays and Fridays. The more I learn, the more I like these folks. Whether traveling on business or pleasure, this hotel is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>As you can tell, I don’t have a lot of time to do these reviews, so when I do, I am usually really impressed. I LOVE this hotel! Visha and PJ do a great job running this property and make their guests fell like they are staying in a swanky place that should be much higher priced. Their Staff of Brenda, Terri, Nichole, Teresa and a few new arrivals are really on top of their game and take great care of their guests. When you first walk in, the lobby is elegant and stylish with its baby grand piano, high ceilings, large museum like pillars and nice music playing. The property was first owned, designed and built by a designer and it shows. Very Nice! Great outdoor pool and covered gazebo style barbeque area for sunbathing and relaxing and unwinding in the evenings. I have seen business groups gather in the evenings to enjoy fellowship and "refreshments" in the lobby, and out by the pool. They just finished upgrading their fitness room to include an elliptical, a treadmill, a weight machine and free weights. The hotel also offers shuttle service to the airport and other places. On another note, I recently noticed special needs children cleaning in the lobby. Visha and PJ participate in a program in one of the local high schools providing an opportunity for the kids to come out and work a few hours on Mondays, Tuesdays...As you can tell, I don’t have a lot of time to do these reviews, so when I do, I am usually really impressed. I LOVE this hotel! Visha and PJ do a great job running this property and make their guests fell like they are staying in a swanky place that should be much higher priced. Their Staff of Brenda, Terri, Nichole, Teresa and a few new arrivals are really on top of their game and take great care of their guests. When you first walk in, the lobby is elegant and stylish with its baby grand piano, high ceilings, large museum like pillars and nice music playing. The property was first owned, designed and built by a designer and it shows. Very Nice! Great outdoor pool and covered gazebo style barbeque area for sunbathing and relaxing and unwinding in the evenings. I have seen business groups gather in the evenings to enjoy fellowship and "refreshments" in the lobby, and out by the pool. They just finished upgrading their fitness room to include an elliptical, a treadmill, a weight machine and free weights. The hotel also offers shuttle service to the airport and other places. On another note, I recently noticed special needs children cleaning in the lobby. Visha and PJ participate in a program in one of the local high schools providing an opportunity for the kids to come out and work a few hours on Mondays, Tuesdays and Fridays. The more I learn, the more I like these folks. Whether traveling on business or pleasure, this hotel is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r159288563-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159288563</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Home Sweet Home</t>
+  </si>
+  <si>
+    <t>I have been staying at the Comfort Inn Suites in Humble, Texas at least 3 nights a week since November of last year. This place is my home away from home. My room and surrounding areas are clean and well groomed. The hospitality from management to house keeping is friendly and courteous. Most of them call me by name. The full breakfast is outstanding and always ready when I am. This is truly Home Sweet Home when I am in the Humble/Kingwood area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r158275181-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158275181</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay and I found it to be a home away from home</t>
+  </si>
+  <si>
+    <t>Great Comfort Suites.  I was there for a relocation, for nearly 50 days.  I found the entire staff to be very helpful and accommodating.  Nice room, breakfast and very good cleaning staff.  The front desk was very nice and helpful to a new person in the area. Everyone knew my name, which is always nice during a stressful time.  Thank you Visha and the entire staff at Comfort Suites Humble!!!!  I actually miss you guys!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r153323854-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>153323854</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>"Comfort" is Correct</t>
+  </si>
+  <si>
+    <t>A quickie one nighter here.  Great price on Hotwire.  The desk clerk at checkin (Terri?) was funny and pleasant.  Our room was on the first floor close to the lobby,  Nevertheless it was quiet.  It was a handicapped accessible room, not what we wanted, but for the price I wasn't going to complain.  The hotel did not seem full so we probably could have had a different room if we had asked.  Very nice breakfast.  Close to IAH.  Would gladly come back.  My star rating is based on how this compares to other properties in the same category.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r153098912-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>153098912</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>No problems, front desk Terri was great, professional and friendly.  Clean rooms, good breakfast. Good places to eat nearby, others have said they heard highway noise, my wife and I did not have any problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>No problems, front desk Terri was great, professional and friendly.  Clean rooms, good breakfast. Good places to eat nearby, others have said they heard highway noise, my wife and I did not have any problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r152546450-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>152546450</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>NEVER Disappoints!</t>
+  </si>
+  <si>
+    <t>We do a 10 room block at this hotel at the same time every year (for the past three years).  The hotel staff is very friendly, knowledgeable and accomodating.  I was very impressed with the fact that they remember my face when I come to check in even though its been a year!  They go above and beyond in the area of customer service!  The property itself is always, neat clean, well decorated - really IMMACULATE!  The rooms are clean, comfortable and modern in decor.  I highly recommend this hotel for your personal and business stays!MoreShow less</t>
+  </si>
+  <si>
+    <t>We do a 10 room block at this hotel at the same time every year (for the past three years).  The hotel staff is very friendly, knowledgeable and accomodating.  I was very impressed with the fact that they remember my face when I come to check in even though its been a year!  They go above and beyond in the area of customer service!  The property itself is always, neat clean, well decorated - really IMMACULATE!  The rooms are clean, comfortable and modern in decor.  I highly recommend this hotel for your personal and business stays!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r151051263-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151051263</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Highly recommended!</t>
+  </si>
+  <si>
+    <t>Spent a week here and it was such a clean, relaxing, and friendly environment. Housekeeping were very friendly and made sure we had clean towels everyday, and asked if we needed our sheets changed. The room was above my expectation. Overall provided great service. Very please with this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Spent a week here and it was such a clean, relaxing, and friendly environment. Housekeeping were very friendly and made sure we had clean towels everyday, and asked if we needed our sheets changed. The room was above my expectation. Overall provided great service. Very please with this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r150878490-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>150878490</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>I had a GREAT stay at this hotel. I have been in town a few times due to business and the surrounding hotels are not as clean nor as accommodating. The staff? OMG sweetest people on earth. I stayed 3 days and the young man at the front was such a cut up. Made my night really. I came in off my flight, which had been delayed twice and I was not in the best mood, but the gentleman handled me quite well and did not let my attitude effect him. He actually made me feel better and I think I slept well that night because I was not in a bad mood. I would highly recommend this hotel to anyone. Thank you for the pleasant visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a GREAT stay at this hotel. I have been in town a few times due to business and the surrounding hotels are not as clean nor as accommodating. The staff? OMG sweetest people on earth. I stayed 3 days and the young man at the front was such a cut up. Made my night really. I came in off my flight, which had been delayed twice and I was not in the best mood, but the gentleman handled me quite well and did not let my attitude effect him. He actually made me feel better and I think I slept well that night because I was not in a bad mood. I would highly recommend this hotel to anyone. Thank you for the pleasant visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r150707258-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>150707258</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>Best in Humble!</t>
+  </si>
+  <si>
+    <t>So we were on our way to Galveston and this place matched our needs. We stopped by at the holiday inn and they were too expensive... afterwards we went to the la quinta and checked in, but we saw 2 lizards in our room and my wife was in panic. So we got a refund and left. Then we found the Comfort Suites. The staff was friendly and the desk guy kept making funny jokes. The rooms were comfortable the only thing that disturbed us was the traffic noise but i guess it was inevitable. Breakfast was excellent and we stayed for 2 nights. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>So we were on our way to Galveston and this place matched our needs. We stopped by at the holiday inn and they were too expensive... afterwards we went to the la quinta and checked in, but we saw 2 lizards in our room and my wife was in panic. So we got a refund and left. Then we found the Comfort Suites. The staff was friendly and the desk guy kept making funny jokes. The rooms were comfortable the only thing that disturbed us was the traffic noise but i guess it was inevitable. Breakfast was excellent and we stayed for 2 nights. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r148009447-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>148009447</t>
+  </si>
+  <si>
+    <t>12/24/2012</t>
+  </si>
+  <si>
+    <t>Noise from Hwy 59 -Like your sleeping on an overpass!!</t>
+  </si>
+  <si>
+    <t>We stayed in Room 322. The highway traffic noise was so awful I did not sleep at all during the night. When booking with George, in October; I asked for a room on an upper floor in a quiet area. After going up to the room I called the front desk and requested another room; none were available. We should have checked out. That is what we did the next morning instead of our planned two night stay. If you stay at this property ask for an odd numbered room. The bedding smelled of cigarette smoke even though the room was non-smoking. They have small safe deposit boxes for rent in their office. I wish motels would install safes in the rooms for guest use. I appreciated the attitude and personality of the person who checked us in and assisted us with the safe deposit box. Not her fault our request for a quiet room location was ignored. The general manager, Visha Gandhi, was not available for assistance during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in Room 322. The highway traffic noise was so awful I did not sleep at all during the night. When booking with George, in October; I asked for a room on an upper floor in a quiet area. After going up to the room I called the front desk and requested another room; none were available. We should have checked out. That is what we did the next morning instead of our planned two night stay. If you stay at this property ask for an odd numbered room. The bedding smelled of cigarette smoke even though the room was non-smoking. They have small safe deposit boxes for rent in their office. I wish motels would install safes in the rooms for guest use. I appreciated the attitude and personality of the person who checked us in and assisted us with the safe deposit box. Not her fault our request for a quiet room location was ignored. The general manager, Visha Gandhi, was not available for assistance during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r146046163-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>146046163</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>Average rooms but friendly employees</t>
+  </si>
+  <si>
+    <t>The room size surprised me positively, having a sofa corner - the lighting disturbed us by its lack of warmth, though.What really made our short stay (two nights) a positive experience was the friendliness of the employees. At the counter we met, was it Ashley? (long dark, curly hair), she was lovely - and at breakfast I had a really nice chat with Nicole running the kitchen. I was disturbed to learn (upon asking, that) she works seven days a week, being a solo mum - she did well, though, made sure my first go at baking a waffle went well (I'm from Europe, not used to baking waffles in the morning, ha, ha).Also I was allowed to play the grand piano in the foyer which made it easy to meet other guests before leaving in the morning.Thank you to some friendly employees who added warmth to an otherwise rather sterile hotel experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Visha_8, Manager at Comfort Suites Humble Houston North, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>The room size surprised me positively, having a sofa corner - the lighting disturbed us by its lack of warmth, though.What really made our short stay (two nights) a positive experience was the friendliness of the employees. At the counter we met, was it Ashley? (long dark, curly hair), she was lovely - and at breakfast I had a really nice chat with Nicole running the kitchen. I was disturbed to learn (upon asking, that) she works seven days a week, being a solo mum - she did well, though, made sure my first go at baking a waffle went well (I'm from Europe, not used to baking waffles in the morning, ha, ha).Also I was allowed to play the grand piano in the foyer which made it easy to meet other guests before leaving in the morning.Thank you to some friendly employees who added warmth to an otherwise rather sterile hotel experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r145975840-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>145975840</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>EXCELLENT HOTEL" GREAT STAFF SERVICE. POSITIVE HEMISPHERE</t>
+  </si>
+  <si>
+    <t>Great place to Stay ..Was Down here in Humble tX..for business..I stay here because a co-worker told me about this location..the hotel smell fresh and clean..felt very welcome from the front the staff as soon as I walked in I was greeted by the front desk staff..I felt like i was at my home...housekeeping does a great job keeping the place spotless...also as I was leaving the head housekeeper was trying to catch my attention because I was driving off..when I stopped to see what she needed she handed me my charger and told me I had left in the room...that tells you how honest the staff is...I could always replace my charger but honsty is very valuable to me..I will definetly make comfort suites humble tx my home away from home...because they make me feel like family...MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to Stay ..Was Down here in Humble tX..for business..I stay here because a co-worker told me about this location..the hotel smell fresh and clean..felt very welcome from the front the staff as soon as I walked in I was greeted by the front desk staff..I felt like i was at my home...housekeeping does a great job keeping the place spotless...also as I was leaving the head housekeeper was trying to catch my attention because I was driving off..when I stopped to see what she needed she handed me my charger and told me I had left in the room...that tells you how honest the staff is...I could always replace my charger but honsty is very valuable to me..I will definetly make comfort suites humble tx my home away from home...because they make me feel like family...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r143163683-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>143163683</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Stay Here If...</t>
+  </si>
+  <si>
+    <t>you're just looking for a place to stay either before or after a flight to/from IAH then this place works well.  It is a bit dated, stains on the carpets being an example, but it is a very clean place.  The staff is friendly and helpful and work hard to see that you have a good stay.  Couple that with a usually unbeatable price and for a short transitional stay, recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>you're just looking for a place to stay either before or after a flight to/from IAH then this place works well.  It is a bit dated, stains on the carpets being an example, but it is a very clean place.  The staff is friendly and helpful and work hard to see that you have a good stay.  Couple that with a usually unbeatable price and for a short transitional stay, recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r142092135-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>142092135</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>It was a good experience from check in to check out.  The hotel was clean and the staff was very friendly and helpful.  We felt safe while there. The breakfast was excellent.  The breakfast person on duty worked hard to keep everything clean and well stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a good experience from check in to check out.  The hotel was clean and the staff was very friendly and helpful.  We felt safe while there. The breakfast was excellent.  The breakfast person on duty worked hard to keep everything clean and well stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r140485756-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>140485756</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Great service, excellent breakfast.</t>
+  </si>
+  <si>
+    <t>Thethe staff was extremely friendly and helpful.  There was a loud and obnoxious family in the room next to mine, and they gave me a new room without any hassle.  The breakfast there was amazing, too.  I would have paid ten or twelve bucks for that alone.  This hotel was very clean as well.  No complaints.  A great value for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thethe staff was extremely friendly and helpful.  There was a loud and obnoxious family in the room next to mine, and they gave me a new room without any hassle.  The breakfast there was amazing, too.  I would have paid ten or twelve bucks for that alone.  This hotel was very clean as well.  No complaints.  A great value for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r130344559-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>130344559</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Great deal from Endless Travel Vacations</t>
+  </si>
+  <si>
+    <t>I booked this hotel with my membership with Endless Travel Vacations.  The property and rooms are very clean and spacious.  The bed and pillows were very comfortable.  The staff was very helpful and efficient.  They provide a full breakfast with the price of the room, not just a Continental breakfast.  The location is within a short distance to the airport and wonderful places to eat. I recommend this hotel and all it has to offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I booked this hotel with my membership with Endless Travel Vacations.  The property and rooms are very clean and spacious.  The bed and pillows were very comfortable.  The staff was very helpful and efficient.  They provide a full breakfast with the price of the room, not just a Continental breakfast.  The location is within a short distance to the airport and wonderful places to eat. I recommend this hotel and all it has to offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r128990398-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>128990398</t>
+  </si>
+  <si>
+    <t>04/28/2012</t>
+  </si>
+  <si>
+    <t>Home Away from Home!</t>
+  </si>
+  <si>
+    <t>I stayed at this property with my eight year old earlier this month. The staff was really friendly, especially the General Manager. I think her name was Visha. She helped us find a great local restaurant for lunch. The suite we stayed in was lovely. I loved the square pillows. The bed was more comfortable than other chains I've stayed with. My son was excited to sleep on the pull out couch. Breakfast was amazing with so many choices. I did not have my laptop with me but I was able to use the complimentary business center. My son loved the pool. I would definitely recommend this property to anyone who will be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Visha_8, General Manager at Comfort Suites Humble Houston North, responded to this reviewResponded May 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this property with my eight year old earlier this month. The staff was really friendly, especially the General Manager. I think her name was Visha. She helped us find a great local restaurant for lunch. The suite we stayed in was lovely. I loved the square pillows. The bed was more comfortable than other chains I've stayed with. My son was excited to sleep on the pull out couch. Breakfast was amazing with so many choices. I did not have my laptop with me but I was able to use the complimentary business center. My son loved the pool. I would definitely recommend this property to anyone who will be in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r127268631-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>127268631</t>
+  </si>
+  <si>
+    <t>04/04/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly quiet</t>
+  </si>
+  <si>
+    <t>When I first got to my room and saw it was right next to the elevator and then looked out the window and saw US59 right there, I was worried about how noisy it was going to be.  I was staying for 10 days and would be working and therefore sleeping some odd hours.  I am a very light sleeper and I was never woken by highway or hallway noise at anytime of day. I had my dont disturb sign out all the time and I was never bothered by the staff. I had no problems with the staff.  Everyone was helpful and seemed to know their job well. There was plenty of parking. The breakfast was ok. There were enough choices.  Everyday was the same. I guess if you are staying only a day or two, you wouldnt notice. The room was clean and the towels and pillows were good.  No complaints about this hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I first got to my room and saw it was right next to the elevator and then looked out the window and saw US59 right there, I was worried about how noisy it was going to be.  I was staying for 10 days and would be working and therefore sleeping some odd hours.  I am a very light sleeper and I was never woken by highway or hallway noise at anytime of day. I had my dont disturb sign out all the time and I was never bothered by the staff. I had no problems with the staff.  Everyone was helpful and seemed to know their job well. There was plenty of parking. The breakfast was ok. There were enough choices.  Everyday was the same. I guess if you are staying only a day or two, you wouldnt notice. The room was clean and the towels and pillows were good.  No complaints about this hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r122384520-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>122384520</t>
+  </si>
+  <si>
+    <t>01/01/2012</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>13 days over 3 weeks caring for family.... and just a wonderful place!We spend many nights in Comfort Suites road-travelling ....and this is property is a winner ......if you are in Kingwood/Humble area ....you will enjoy the friendly staff and well-done breakfast buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Visha_8, General Manager at Comfort Suites Humble Houston North, responded to this reviewResponded March 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2012</t>
+  </si>
+  <si>
+    <t>13 days over 3 weeks caring for family.... and just a wonderful place!We spend many nights in Comfort Suites road-travelling ....and this is property is a winner ......if you are in Kingwood/Humble area ....you will enjoy the friendly staff and well-done breakfast buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r121384662-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>121384662</t>
+  </si>
+  <si>
+    <t>12/04/2011</t>
+  </si>
+  <si>
+    <t>Excellent value.</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels we have stayed in for some time!  I booked this hotel through hotels.com and got a wonderful rate for a week’s stay.  When arriving at the hotel to check in I was immediately impressed with the lobby area.  When I went to the desk there was Terry.  She already had our packet ready with the room keys.  I asked her if we could see the room first and she simply handed me the room card to get into the room.  We always like to see the room first.  When I went back to the desk everything was done and ready for us to move in.  Terry mentioned all the amenities of the hotel and told me about the chocolate chip cookies at 6:00 PM.  I joked with her about the cookies and kind of forgot about them.  A little after 6:00 there was Terry at our room door with two chocolate chip cookies!  She was a very nice person the whole time we stayed there as were the other front desk employees.  Everyone was very friendly including Nicole who takes care of the breakfast area.  The morning breakfast is good except for one thing, FIX THE GRAVY!  The gravy used for the biscuits and gravy really SUCKS.   Nicole was always there during the morning meal to make sure everything was available.  I got hooked on the cinnamon waffles.
+	The biggest complaint we had...This is one of the best hotels we have stayed in for some time!  I booked this hotel through hotels.com and got a wonderful rate for a week’s stay.  When arriving at the hotel to check in I was immediately impressed with the lobby area.  When I went to the desk there was Terry.  She already had our packet ready with the room keys.  I asked her if we could see the room first and she simply handed me the room card to get into the room.  We always like to see the room first.  When I went back to the desk everything was done and ready for us to move in.  Terry mentioned all the amenities of the hotel and told me about the chocolate chip cookies at 6:00 PM.  I joked with her about the cookies and kind of forgot about them.  A little after 6:00 there was Terry at our room door with two chocolate chip cookies!  She was a very nice person the whole time we stayed there as were the other front desk employees.  Everyone was very friendly including Nicole who takes care of the breakfast area.  The morning breakfast is good except for one thing, FIX THE GRAVY!  The gravy used for the biscuits and gravy really SUCKS.   Nicole was always there during the morning meal to make sure everything was available.  I got hooked on the cinnamon waffles.	The biggest complaint we had during our stay was the woman with kids next door to our room.  Apparently, she had no control over the kids or simply did not care.  It was probably the latter.  They were crying and screaming at all hours.  We notified the desk and were informed that they had already talked with her.  It didn’t seem to do much good as the practice continued.  We had to call at 10:45 PM one night to tell the desk to call their room and tell them to hold it down.  I think the hotel did just about everything they could short of asking them to leave the hotel.  I would have done exactly that.	The other minor problem with our room was the fact that it was next to an electrical room where a fan seemed to run continuously.  This was a bit annoying.  	Overall this was a very nice hotel and the staff was excellent.  We would not hesitate to stay again.  The overall value was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels we have stayed in for some time!  I booked this hotel through hotels.com and got a wonderful rate for a week’s stay.  When arriving at the hotel to check in I was immediately impressed with the lobby area.  When I went to the desk there was Terry.  She already had our packet ready with the room keys.  I asked her if we could see the room first and she simply handed me the room card to get into the room.  We always like to see the room first.  When I went back to the desk everything was done and ready for us to move in.  Terry mentioned all the amenities of the hotel and told me about the chocolate chip cookies at 6:00 PM.  I joked with her about the cookies and kind of forgot about them.  A little after 6:00 there was Terry at our room door with two chocolate chip cookies!  She was a very nice person the whole time we stayed there as were the other front desk employees.  Everyone was very friendly including Nicole who takes care of the breakfast area.  The morning breakfast is good except for one thing, FIX THE GRAVY!  The gravy used for the biscuits and gravy really SUCKS.   Nicole was always there during the morning meal to make sure everything was available.  I got hooked on the cinnamon waffles.
+	The biggest complaint we had...This is one of the best hotels we have stayed in for some time!  I booked this hotel through hotels.com and got a wonderful rate for a week’s stay.  When arriving at the hotel to check in I was immediately impressed with the lobby area.  When I went to the desk there was Terry.  She already had our packet ready with the room keys.  I asked her if we could see the room first and she simply handed me the room card to get into the room.  We always like to see the room first.  When I went back to the desk everything was done and ready for us to move in.  Terry mentioned all the amenities of the hotel and told me about the chocolate chip cookies at 6:00 PM.  I joked with her about the cookies and kind of forgot about them.  A little after 6:00 there was Terry at our room door with two chocolate chip cookies!  She was a very nice person the whole time we stayed there as were the other front desk employees.  Everyone was very friendly including Nicole who takes care of the breakfast area.  The morning breakfast is good except for one thing, FIX THE GRAVY!  The gravy used for the biscuits and gravy really SUCKS.   Nicole was always there during the morning meal to make sure everything was available.  I got hooked on the cinnamon waffles.	The biggest complaint we had during our stay was the woman with kids next door to our room.  Apparently, she had no control over the kids or simply did not care.  It was probably the latter.  They were crying and screaming at all hours.  We notified the desk and were informed that they had already talked with her.  It didn’t seem to do much good as the practice continued.  We had to call at 10:45 PM one night to tell the desk to call their room and tell them to hold it down.  I think the hotel did just about everything they could short of asking them to leave the hotel.  I would have done exactly that.	The other minor problem with our room was the fact that it was next to an electrical room where a fan seemed to run continuously.  This was a bit annoying.  	Overall this was a very nice hotel and the staff was excellent.  We would not hesitate to stay again.  The overall value was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r120229089-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>120229089</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Clean, Spacious, Well-Maintained</t>
+  </si>
+  <si>
+    <t>This is an excellent stop for either a road trip or if you are using the Bush International Airport.  Rooms were spacious, the bed was comfortable, the hot breakfast buffet delicious and complementary Wall Street Journal added just the right touch.  Staff was warm and welcoming, as were the cookies.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an excellent stop for either a road trip or if you are using the Bush International Airport.  Rooms were spacious, the bed was comfortable, the hot breakfast buffet delicious and complementary Wall Street Journal added just the right touch.  Staff was warm and welcoming, as were the cookies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r119081329-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119081329</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>A Suite Choice for the Kingwood and Humble Area!</t>
+  </si>
+  <si>
+    <t>I've stayed at other Comfort Suites and I found that this property was just as nice and comfortable as all the other locations.  I found all the hotel staff to be pleasant, helpful and friendly!I was pleased to find that they served a Complimentary Hot Breakfast Buffet. I especially enjoyed their coffee which was a pleasant surprise from most other hotel chains.  This location also features a 24 hour Business Center, Complimentary High Speed Wireless Internet,  24 hour on site Fitness Room, Meeting Space for up to 50 people as well as a Board/Conference Room for up to 6 people.  They also have Handicap Rooms available for their guests.  A plus for me is that the entire hotel is a 100% Smoke Free HotelI found the price of the room more than I was comfortable paying but I realized that you do have to pay more in larger cities and I was able to obtain a Senior Discount which helped!Comfort Suties is conveniently located within 5 miles of the FM 1960 Interchange, the AMC 24, the Deerbrook Mall, the Kingwood Town Center, Lake Houston, Cypresswood Golf Course and the  Kingwood Country Club.  The hotel is approximately 7 miles from the Bush Intercontinental Airport.Overall, I would say the Comfort Suites Hotel is a Suite Choice for the Kingwood, Humble and North Houston area!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I've stayed at other Comfort Suites and I found that this property was just as nice and comfortable as all the other locations.  I found all the hotel staff to be pleasant, helpful and friendly!I was pleased to find that they served a Complimentary Hot Breakfast Buffet. I especially enjoyed their coffee which was a pleasant surprise from most other hotel chains.  This location also features a 24 hour Business Center, Complimentary High Speed Wireless Internet,  24 hour on site Fitness Room, Meeting Space for up to 50 people as well as a Board/Conference Room for up to 6 people.  They also have Handicap Rooms available for their guests.  A plus for me is that the entire hotel is a 100% Smoke Free HotelI found the price of the room more than I was comfortable paying but I realized that you do have to pay more in larger cities and I was able to obtain a Senior Discount which helped!Comfort Suties is conveniently located within 5 miles of the FM 1960 Interchange, the AMC 24, the Deerbrook Mall, the Kingwood Town Center, Lake Houston, Cypresswood Golf Course and the  Kingwood Country Club.  The hotel is approximately 7 miles from the Bush Intercontinental Airport.Overall, I would say the Comfort Suites Hotel is a Suite Choice for the Kingwood, Humble and North Houston area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r116779131-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>116779131</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel with very friendly staff</t>
+  </si>
+  <si>
+    <t>We just spent one night at this hotel but really enjoyed the clean, nice smelling, comfortable room and friendly front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We just spent one night at this hotel but really enjoyed the clean, nice smelling, comfortable room and friendly front desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r114882043-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>114882043</t>
+  </si>
+  <si>
+    <t>06/29/2011</t>
+  </si>
+  <si>
+    <t>Clean and Friendly</t>
+  </si>
+  <si>
+    <t>My mother and I stayed at the Kingwood/Humble Comfort Suites June 19th – June 25th, 2011.  My mom was participating in the National Sr. Games that were being held in Houston.  My awesome experience started when I call the hotel to check on rates. I had looked on the internet originally to book my stay but I had question that could not be answered by the web site.   I called the hotel and got all my questions answered and very happy with my decision.   I decided to book directly with the hotel and did not use the web site, the rates were slightly less on the web page but you had to pay at time of booking and the reservation would have been non refundable, I didn’t want to take the change and have to make changes to our trip and be stuck with a nonrefundable hotel stay.  The hotel was also offering discounted rate for the participants in the Senior Games.  Which was not on the web page.   The person who helped me with my reservation was very knowledgeable about the area and could tell me how far the events were from the hotel.  
+The staff at the hotel was very friendly and professional.  Our favorite was Terri.  She was very knowledgeable about the area and helped me navigate from place to place and had great suggestions for things to do during our down time.  It was always so...My mother and I stayed at the Kingwood/Humble Comfort Suites June 19th – June 25th, 2011.  My mom was participating in the National Sr. Games that were being held in Houston.  My awesome experience started when I call the hotel to check on rates. I had looked on the internet originally to book my stay but I had question that could not be answered by the web site.   I called the hotel and got all my questions answered and very happy with my decision.   I decided to book directly with the hotel and did not use the web site, the rates were slightly less on the web page but you had to pay at time of booking and the reservation would have been non refundable, I didn’t want to take the change and have to make changes to our trip and be stuck with a nonrefundable hotel stay.  The hotel was also offering discounted rate for the participants in the Senior Games.  Which was not on the web page.   The person who helped me with my reservation was very knowledgeable about the area and could tell me how far the events were from the hotel.  The staff at the hotel was very friendly and professional.  Our favorite was Terri.  She was very knowledgeable about the area and helped me navigate from place to place and had great suggestions for things to do during our down time.  It was always so nice to see her smiling face when we arrived and she was always asking how my mom had done in her events.   The property was clean and had all the amenities that we needed.  It had a workout room, a pool area with hot tub.  Our room was clean and was very large; it was nice to have a place to sit that was separate from the sleeping area with the beds.    I appreciated that there were two computers for guests to use, the printer was not working.  I did ask a person at the front desk for help in printing my boarding pass and I was quite surprised that she couldn’t help me because she didn’t have access to the internet.  That puts the staff at quite a disadvantage in being able to assist the guests.   A guest asked for directions and the person at the front desk was not familiar with the place he needed to go so she directed him to the guest computers, unfortunately he was not familiar with using the computer for directions.   She should have been able to help him.  I ended up getting the directions for him.  The breakfast provided is pretty good.  It has the basics like oatmeal, cold cereals, breads, yogurt, fruits, waffles and a nice variety of hot items as well.  For the most part it was pretty well stocked, only one day were they low on items ½ hour before the end of the breakfast service there were no eggs available.   The coffee was great. It was the perfect choice for our 6 day stay in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My mother and I stayed at the Kingwood/Humble Comfort Suites June 19th – June 25th, 2011.  My mom was participating in the National Sr. Games that were being held in Houston.  My awesome experience started when I call the hotel to check on rates. I had looked on the internet originally to book my stay but I had question that could not be answered by the web site.   I called the hotel and got all my questions answered and very happy with my decision.   I decided to book directly with the hotel and did not use the web site, the rates were slightly less on the web page but you had to pay at time of booking and the reservation would have been non refundable, I didn’t want to take the change and have to make changes to our trip and be stuck with a nonrefundable hotel stay.  The hotel was also offering discounted rate for the participants in the Senior Games.  Which was not on the web page.   The person who helped me with my reservation was very knowledgeable about the area and could tell me how far the events were from the hotel.  
+The staff at the hotel was very friendly and professional.  Our favorite was Terri.  She was very knowledgeable about the area and helped me navigate from place to place and had great suggestions for things to do during our down time.  It was always so...My mother and I stayed at the Kingwood/Humble Comfort Suites June 19th – June 25th, 2011.  My mom was participating in the National Sr. Games that were being held in Houston.  My awesome experience started when I call the hotel to check on rates. I had looked on the internet originally to book my stay but I had question that could not be answered by the web site.   I called the hotel and got all my questions answered and very happy with my decision.   I decided to book directly with the hotel and did not use the web site, the rates were slightly less on the web page but you had to pay at time of booking and the reservation would have been non refundable, I didn’t want to take the change and have to make changes to our trip and be stuck with a nonrefundable hotel stay.  The hotel was also offering discounted rate for the participants in the Senior Games.  Which was not on the web page.   The person who helped me with my reservation was very knowledgeable about the area and could tell me how far the events were from the hotel.  The staff at the hotel was very friendly and professional.  Our favorite was Terri.  She was very knowledgeable about the area and helped me navigate from place to place and had great suggestions for things to do during our down time.  It was always so nice to see her smiling face when we arrived and she was always asking how my mom had done in her events.   The property was clean and had all the amenities that we needed.  It had a workout room, a pool area with hot tub.  Our room was clean and was very large; it was nice to have a place to sit that was separate from the sleeping area with the beds.    I appreciated that there were two computers for guests to use, the printer was not working.  I did ask a person at the front desk for help in printing my boarding pass and I was quite surprised that she couldn’t help me because she didn’t have access to the internet.  That puts the staff at quite a disadvantage in being able to assist the guests.   A guest asked for directions and the person at the front desk was not familiar with the place he needed to go so she directed him to the guest computers, unfortunately he was not familiar with using the computer for directions.   She should have been able to help him.  I ended up getting the directions for him.  The breakfast provided is pretty good.  It has the basics like oatmeal, cold cereals, breads, yogurt, fruits, waffles and a nice variety of hot items as well.  For the most part it was pretty well stocked, only one day were they low on items ½ hour before the end of the breakfast service there were no eggs available.   The coffee was great. It was the perfect choice for our 6 day stay in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r69480611-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>69480611</t>
+  </si>
+  <si>
+    <t>07/02/2010</t>
+  </si>
+  <si>
+    <t>Excellent Budget Suite Hotel</t>
+  </si>
+  <si>
+    <t>As previously mentioned, this hotel is under new management and has been remodeled.  We found it to very clean and up to date.  The complementary hot breakfast was fine.  The AC unit was a little noisy, but I've heard much worse.  And given the low weekend rates (AAA), we got adjoining rooms, one King Suite connected to a 2 Queen Suite, so every family member had their own comfortable bed.  We typically stay at the nearby Homewood Suites, which is  a step up in amenities (and price), but this hotel was more than adequate and a bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>Visha_8, General Manager at Comfort Suites Humble Houston North, responded to this reviewResponded December 13, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2010</t>
+  </si>
+  <si>
+    <t>As previously mentioned, this hotel is under new management and has been remodeled.  We found it to very clean and up to date.  The complementary hot breakfast was fine.  The AC unit was a little noisy, but I've heard much worse.  And given the low weekend rates (AAA), we got adjoining rooms, one King Suite connected to a 2 Queen Suite, so every family member had their own comfortable bed.  We typically stay at the nearby Homewood Suites, which is  a step up in amenities (and price), but this hotel was more than adequate and a bargain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d300749-r18136187-Comfort_Suites_Humble_Houston_North-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>18136187</t>
+  </si>
+  <si>
+    <t>07/22/2008</t>
+  </si>
+  <si>
+    <t>Simply The Best !</t>
+  </si>
+  <si>
+    <t>Just returned from a trip to the Houston area (Humble/Kingwood) and a wonderful stay at the Comfort Suites Hotel.  This is a jewel !   Incredible service, wonderfully decorated (looked newly remodeled),  OH ! SO ! comfortable beds, great breakfast with lots of hot food choices, large business center and excellent location.  Lots of conveniences and things to do nearby  i.e.;  large shopping mall, excellent restaurants ( not just fast food) and abundance of 1st.Class golfing venues and just a short drive to the International Airport.  SIMPLY THE BEST!    We recommendly highly.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2189,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2221,5158 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>143</v>
+      </c>
+      <c r="X16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>186</v>
+      </c>
+      <c r="X21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>210</v>
+      </c>
+      <c r="X29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" t="s">
+        <v>262</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>322</v>
+      </c>
+      <c r="X39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>322</v>
+      </c>
+      <c r="X40" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>349</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
+        <v>375</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>364</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s">
+        <v>386</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>388</v>
+      </c>
+      <c r="J50" t="s">
+        <v>389</v>
+      </c>
+      <c r="K50" t="s">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s">
+        <v>391</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K51" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>399</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>400</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" t="s">
+        <v>402</v>
+      </c>
+      <c r="K52" t="s">
+        <v>403</v>
+      </c>
+      <c r="L52" t="s">
+        <v>404</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>405</v>
+      </c>
+      <c r="O52" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>406</v>
+      </c>
+      <c r="X52" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>414</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>417</v>
+      </c>
+      <c r="J54" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>422</v>
+      </c>
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L55" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>426</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" t="s">
+        <v>429</v>
+      </c>
+      <c r="K56" t="s">
+        <v>430</v>
+      </c>
+      <c r="L56" t="s">
+        <v>431</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>433</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>434</v>
+      </c>
+      <c r="J57" t="s">
+        <v>435</v>
+      </c>
+      <c r="K57" t="s">
+        <v>436</v>
+      </c>
+      <c r="L57" t="s">
+        <v>437</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>406</v>
+      </c>
+      <c r="X57" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>440</v>
+      </c>
+      <c r="J58" t="s">
+        <v>441</v>
+      </c>
+      <c r="K58" t="s">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s">
+        <v>443</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>406</v>
+      </c>
+      <c r="X58" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>446</v>
+      </c>
+      <c r="J59" t="s">
+        <v>447</v>
+      </c>
+      <c r="K59" t="s">
+        <v>448</v>
+      </c>
+      <c r="L59" t="s">
+        <v>449</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>450</v>
+      </c>
+      <c r="X59" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>453</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>454</v>
+      </c>
+      <c r="J60" t="s">
+        <v>455</v>
+      </c>
+      <c r="K60" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s">
+        <v>457</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>432</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>406</v>
+      </c>
+      <c r="X60" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>460</v>
+      </c>
+      <c r="J61" t="s">
+        <v>461</v>
+      </c>
+      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>463</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>465</v>
+      </c>
+      <c r="X61" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>464</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>406</v>
+      </c>
+      <c r="X62" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>475</v>
+      </c>
+      <c r="J63" t="s">
+        <v>476</v>
+      </c>
+      <c r="K63" t="s">
+        <v>477</v>
+      </c>
+      <c r="L63" t="s">
+        <v>478</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>479</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>480</v>
+      </c>
+      <c r="X63" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>483</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>484</v>
+      </c>
+      <c r="J64" t="s">
+        <v>485</v>
+      </c>
+      <c r="K64" t="s">
+        <v>486</v>
+      </c>
+      <c r="L64" t="s">
+        <v>487</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>450</v>
+      </c>
+      <c r="X64" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>489</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>490</v>
+      </c>
+      <c r="J65" t="s">
+        <v>491</v>
+      </c>
+      <c r="K65" t="s">
+        <v>492</v>
+      </c>
+      <c r="L65" t="s">
+        <v>493</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>494</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>480</v>
+      </c>
+      <c r="X65" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>497</v>
+      </c>
+      <c r="J66" t="s">
+        <v>498</v>
+      </c>
+      <c r="K66" t="s">
+        <v>499</v>
+      </c>
+      <c r="L66" t="s">
+        <v>500</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>406</v>
+      </c>
+      <c r="X66" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>504</v>
+      </c>
+      <c r="K67" t="s">
+        <v>505</v>
+      </c>
+      <c r="L67" t="s">
+        <v>506</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>406</v>
+      </c>
+      <c r="X67" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>508</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+      <c r="J68" t="s">
+        <v>510</v>
+      </c>
+      <c r="K68" t="s">
+        <v>511</v>
+      </c>
+      <c r="L68" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>480</v>
+      </c>
+      <c r="X68" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>516</v>
+      </c>
+      <c r="J69" t="s">
+        <v>517</v>
+      </c>
+      <c r="K69" t="s">
+        <v>518</v>
+      </c>
+      <c r="L69" t="s">
+        <v>519</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>520</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>521</v>
+      </c>
+      <c r="X69" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>525</v>
+      </c>
+      <c r="J70" t="s">
+        <v>526</v>
+      </c>
+      <c r="K70" t="s">
+        <v>527</v>
+      </c>
+      <c r="L70" t="s">
+        <v>528</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>520</v>
+      </c>
+      <c r="O70" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>521</v>
+      </c>
+      <c r="X70" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>530</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>531</v>
+      </c>
+      <c r="J71" t="s">
+        <v>532</v>
+      </c>
+      <c r="K71" t="s">
+        <v>533</v>
+      </c>
+      <c r="L71" t="s">
+        <v>534</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>535</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>536</v>
+      </c>
+      <c r="X71" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>539</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>540</v>
+      </c>
+      <c r="J72" t="s">
+        <v>541</v>
+      </c>
+      <c r="K72" t="s">
+        <v>542</v>
+      </c>
+      <c r="L72" t="s">
+        <v>543</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>544</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>536</v>
+      </c>
+      <c r="X72" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>546</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>547</v>
+      </c>
+      <c r="J73" t="s">
+        <v>548</v>
+      </c>
+      <c r="K73" t="s">
+        <v>549</v>
+      </c>
+      <c r="L73" t="s">
+        <v>550</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>544</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>536</v>
+      </c>
+      <c r="X73" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>554</v>
+      </c>
+      <c r="K74" t="s">
+        <v>555</v>
+      </c>
+      <c r="L74" t="s">
+        <v>556</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>557</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>536</v>
+      </c>
+      <c r="X74" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>560</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" t="s">
+        <v>562</v>
+      </c>
+      <c r="L75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>564</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>536</v>
+      </c>
+      <c r="X75" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>566</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>571</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>536</v>
+      </c>
+      <c r="X76" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>573</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>574</v>
+      </c>
+      <c r="J77" t="s">
+        <v>575</v>
+      </c>
+      <c r="K77" t="s">
+        <v>576</v>
+      </c>
+      <c r="L77" t="s">
+        <v>577</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>578</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>579</v>
+      </c>
+      <c r="X77" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>582</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>583</v>
+      </c>
+      <c r="J78" t="s">
+        <v>584</v>
+      </c>
+      <c r="K78" t="s">
+        <v>585</v>
+      </c>
+      <c r="L78" t="s">
+        <v>586</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>587</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
